--- a/config_8.17/act_ty_phb_config.xlsx
+++ b/config_8.17/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_025_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_rank_ymshf_017_hldr_rank</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -157,6 +153,10 @@
   </si>
   <si>
     <t>雪糕数达到9万</t>
+  </si>
+  <si>
+    <t>act_026_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -712,13 +712,13 @@
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I2" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>32</v>
@@ -730,10 +730,10 @@
         <v>18</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -912,7 +912,7 @@
         <v>3000000</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -929,7 +929,7 @@
         <v>1800000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -946,7 +946,7 @@
         <v>900000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -963,7 +963,7 @@
         <v>450000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -980,7 +980,7 @@
         <v>300000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -997,7 +997,7 @@
         <v>180000</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,7 +1014,7 @@
         <v>90000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
